--- a/data/Patents_Piedmont_1856_1864.xlsx
+++ b/data/Patents_Piedmont_1856_1864.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miro8\OneDrive - Universiteit Utrecht\Documents\Research\Data Drive\IT Patents Drive\GU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miro8\OneDrive - Universiteit Utrecht\Documents\Github\layout_parse\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -1281,12 +1281,492 @@
         </r>
       </text>
     </comment>
+    <comment ref="B782" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ciamberì</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B791" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sanpierdarena</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B803" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sanpierdarena</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B815" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Sanpierdarena</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B842" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Metz (Moselle)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B882" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+luogotenente nell'Artiglieria Italiana</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B906" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+comte du</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D939" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rue de la Chaussée-d'Antin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A954" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+incomplete</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A955" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+incomplete</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A956" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+incomplete</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A957" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+incomplete</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A958" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+incomplete</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A959" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+incomplete</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A960" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+incomplete</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A961" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+incomplete</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B979" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Avignone Barrière St. Michel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B980" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+San Pier d'Arena, Genova</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B993" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Nuova York</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1058" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Giacomo Domini:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Barge Jard (Londra)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="338">
   <si>
     <t>1856q3</t>
   </si>
@@ -2006,6 +2486,300 @@
   </si>
   <si>
     <t>Scozia</t>
+  </si>
+  <si>
+    <t>1861q1</t>
+  </si>
+  <si>
+    <t>Avignon (Vaucluse)</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>St-Germani en Laye (Seine et Oise)</t>
+  </si>
+  <si>
+    <t>Deptford</t>
+  </si>
+  <si>
+    <t>Romainville</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Bas (Haute-Loire)</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Scaramagna (Ivrea)</t>
+  </si>
+  <si>
+    <t>Vals (Ardeche)</t>
+  </si>
+  <si>
+    <t>Voltri (Genova)</t>
+  </si>
+  <si>
+    <t>Chicopée, contea di Hampden nello stato del Massachussetts</t>
+  </si>
+  <si>
+    <t>1862q2</t>
+  </si>
+  <si>
+    <t>Borgosesia, circondario di Valsesia</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Edinborgo</t>
+  </si>
+  <si>
+    <t>Gentbrugge-lez-Gand</t>
+  </si>
+  <si>
+    <t>St-Etienne (Loire)</t>
+  </si>
+  <si>
+    <t>Saint-Neots, contea di Hunlingden</t>
+  </si>
+  <si>
+    <t>Gand</t>
+  </si>
+  <si>
+    <t>Epernary</t>
+  </si>
+  <si>
+    <t>Charenton-le-Pont</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Varallo (Valsesia)</t>
+  </si>
+  <si>
+    <t>1861q2</t>
+  </si>
+  <si>
+    <t>1861q3</t>
+  </si>
+  <si>
+    <t>Chalong-sur-Saône</t>
+  </si>
+  <si>
+    <t>Lombardia</t>
+  </si>
+  <si>
+    <t>Lockleys Wellwyn, contea di Sterlford</t>
+  </si>
+  <si>
+    <t>Val-des-bois (Marne)</t>
+  </si>
+  <si>
+    <t>Pavia</t>
+  </si>
+  <si>
+    <t>Lecco (Lombardia)</t>
+  </si>
+  <si>
+    <t>Busto Arsizio (Lombardia)</t>
+  </si>
+  <si>
+    <t>Sestri Ponente (Genova)</t>
+  </si>
+  <si>
+    <t>la Ferté Aleps (Seine et Oise)</t>
+  </si>
+  <si>
+    <t>Lucca</t>
+  </si>
+  <si>
+    <t>Lara et le Ren</t>
+  </si>
+  <si>
+    <t>Nottingham</t>
+  </si>
+  <si>
+    <t>1861q4</t>
+  </si>
+  <si>
+    <t>Vitton House, contea di Norfolk</t>
+  </si>
+  <si>
+    <t>Salerno</t>
+  </si>
+  <si>
+    <t>Romsey, contea di Kent</t>
+  </si>
+  <si>
+    <t>Vienne Isère</t>
+  </si>
+  <si>
+    <t>Reggio (Emilia)</t>
+  </si>
+  <si>
+    <t>Arona</t>
+  </si>
+  <si>
+    <t>Amerique</t>
+  </si>
+  <si>
+    <t>Alençon (Orne)</t>
+  </si>
+  <si>
+    <t>Besançon</t>
+  </si>
+  <si>
+    <t>Merton, comté de Surrey</t>
+  </si>
+  <si>
+    <t>Ipswich, contea di Suffolk</t>
+  </si>
+  <si>
+    <t>Châlon-sur-Saône</t>
+  </si>
+  <si>
+    <t>Pesth</t>
+  </si>
+  <si>
+    <t>Ungheria</t>
+  </si>
+  <si>
+    <t>Verzuolo (Saluzzo)</t>
+  </si>
+  <si>
+    <t>Gastaco provincia di Biscaglia</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>Laon (Aisne)</t>
+  </si>
+  <si>
+    <t>1862q1</t>
+  </si>
+  <si>
+    <t>Onno (Lecco)</t>
+  </si>
+  <si>
+    <t>Pistoia</t>
+  </si>
+  <si>
+    <t>Sardegna</t>
+  </si>
+  <si>
+    <t>Mosca</t>
+  </si>
+  <si>
+    <t>Longaron, Main et Loire</t>
+  </si>
+  <si>
+    <t>Bazeilles près de Sedan Ardennes</t>
+  </si>
+  <si>
+    <t>Châlons-sur-Saône</t>
+  </si>
+  <si>
+    <t>Novi (Alessandria)</t>
+  </si>
+  <si>
+    <t>Francoforte sul Meno</t>
+  </si>
+  <si>
+    <t>1862q3</t>
+  </si>
+  <si>
+    <t>Algeri</t>
+  </si>
+  <si>
+    <t>Borgo San Dalmazzo (Cuneo)</t>
+  </si>
+  <si>
+    <t>Deustadt (Hannover)</t>
+  </si>
+  <si>
+    <t>Otsen</t>
+  </si>
+  <si>
+    <t>Boston, contea di Suffolk</t>
+  </si>
+  <si>
+    <t>Nîmes</t>
+  </si>
+  <si>
+    <t>Grignasco (Novara)</t>
+  </si>
+  <si>
+    <t>Roubain, départemnt du Nord</t>
+  </si>
+  <si>
+    <t>Bernay</t>
+  </si>
+  <si>
+    <t>Brunswich</t>
+  </si>
+  <si>
+    <t>Dudarstadt</t>
+  </si>
+  <si>
+    <t>Birmingham, contea di Warwich</t>
+  </si>
+  <si>
+    <t>Montpellier (Hérault)</t>
+  </si>
+  <si>
+    <t>Donay (Nord)</t>
+  </si>
+  <si>
+    <t>1862q4</t>
+  </si>
+  <si>
+    <t>Alessandria d'Egitto</t>
+  </si>
+  <si>
+    <t>Cassano d'Adda (Milano)</t>
+  </si>
+  <si>
+    <t>Massa</t>
+  </si>
+  <si>
+    <t>Nizza, dipartimento delle Alpi</t>
+  </si>
+  <si>
+    <t>Amiens (Somme)</t>
+  </si>
+  <si>
+    <t>Reim</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Leeds, York</t>
+  </si>
+  <si>
+    <t>Saint Germain en Laye (Seine et Oise)</t>
+  </si>
+  <si>
+    <t>Suna, sotto-prefettura di Pallanza</t>
+  </si>
+  <si>
+    <t>Altstaedten</t>
+  </si>
+  <si>
+    <t>Paroldo (Mondovì)</t>
   </si>
 </sst>
 </file>
@@ -2034,12 +2808,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2054,8 +2834,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2395,11 +3176,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E747"/>
+  <dimension ref="A1:E1078"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A662" sqref="A662"/>
+      <pane ySplit="1" topLeftCell="A1038" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1043" sqref="C1043"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9062,6 +9843,2933 @@
       </c>
       <c r="B747" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>240</v>
+      </c>
+      <c r="B748" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>240</v>
+      </c>
+      <c r="B749" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>240</v>
+      </c>
+      <c r="B750" t="s">
+        <v>241</v>
+      </c>
+      <c r="C750" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>240</v>
+      </c>
+      <c r="B751" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>240</v>
+      </c>
+      <c r="B752" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>240</v>
+      </c>
+      <c r="B753" t="s">
+        <v>3</v>
+      </c>
+      <c r="C753" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>240</v>
+      </c>
+      <c r="B754" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>240</v>
+      </c>
+      <c r="B755" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>240</v>
+      </c>
+      <c r="B756" t="s">
+        <v>244</v>
+      </c>
+      <c r="C756" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>240</v>
+      </c>
+      <c r="B757" t="s">
+        <v>245</v>
+      </c>
+      <c r="C757" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>240</v>
+      </c>
+      <c r="B758" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>240</v>
+      </c>
+      <c r="B759" t="s">
+        <v>246</v>
+      </c>
+      <c r="C759" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>240</v>
+      </c>
+      <c r="B760" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>240</v>
+      </c>
+      <c r="B761" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>240</v>
+      </c>
+      <c r="B762" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>240</v>
+      </c>
+      <c r="B763" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>240</v>
+      </c>
+      <c r="B764" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>240</v>
+      </c>
+      <c r="B765" t="s">
+        <v>248</v>
+      </c>
+      <c r="C765" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>240</v>
+      </c>
+      <c r="B766" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>240</v>
+      </c>
+      <c r="B767" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>240</v>
+      </c>
+      <c r="B768" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>240</v>
+      </c>
+      <c r="B769" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>240</v>
+      </c>
+      <c r="B770" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>240</v>
+      </c>
+      <c r="B771" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>240</v>
+      </c>
+      <c r="B772" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>240</v>
+      </c>
+      <c r="B773" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>240</v>
+      </c>
+      <c r="B774" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>240</v>
+      </c>
+      <c r="B775" t="s">
+        <v>250</v>
+      </c>
+      <c r="C775" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>240</v>
+      </c>
+      <c r="B776" t="s">
+        <v>251</v>
+      </c>
+      <c r="C776" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>240</v>
+      </c>
+      <c r="B777" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>240</v>
+      </c>
+      <c r="B778" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>240</v>
+      </c>
+      <c r="B779" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>240</v>
+      </c>
+      <c r="B780" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>240</v>
+      </c>
+      <c r="B781" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>240</v>
+      </c>
+      <c r="B782" t="s">
+        <v>57</v>
+      </c>
+      <c r="C782" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>240</v>
+      </c>
+      <c r="B783" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>240</v>
+      </c>
+      <c r="B784" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>240</v>
+      </c>
+      <c r="B785" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>240</v>
+      </c>
+      <c r="B786" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>240</v>
+      </c>
+      <c r="B787" t="s">
+        <v>253</v>
+      </c>
+      <c r="C787" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>240</v>
+      </c>
+      <c r="B788" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>267</v>
+      </c>
+      <c r="B789" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>267</v>
+      </c>
+      <c r="B790" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>267</v>
+      </c>
+      <c r="B791" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>267</v>
+      </c>
+      <c r="B792" t="s">
+        <v>255</v>
+      </c>
+      <c r="C792" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>267</v>
+      </c>
+      <c r="B793" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>267</v>
+      </c>
+      <c r="B794" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>267</v>
+      </c>
+      <c r="B795" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>267</v>
+      </c>
+      <c r="B796" t="s">
+        <v>142</v>
+      </c>
+      <c r="C796" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>267</v>
+      </c>
+      <c r="B797" t="s">
+        <v>257</v>
+      </c>
+      <c r="C797" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>267</v>
+      </c>
+      <c r="B798" t="s">
+        <v>258</v>
+      </c>
+      <c r="C798" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>267</v>
+      </c>
+      <c r="B799" t="s">
+        <v>259</v>
+      </c>
+      <c r="C799" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>267</v>
+      </c>
+      <c r="B800" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>267</v>
+      </c>
+      <c r="B801" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>267</v>
+      </c>
+      <c r="B802" t="s">
+        <v>260</v>
+      </c>
+      <c r="C802" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>267</v>
+      </c>
+      <c r="B803" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>267</v>
+      </c>
+      <c r="B804" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>267</v>
+      </c>
+      <c r="B805" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>267</v>
+      </c>
+      <c r="B806" t="s">
+        <v>261</v>
+      </c>
+      <c r="C806" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>267</v>
+      </c>
+      <c r="B807" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>267</v>
+      </c>
+      <c r="B808" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>267</v>
+      </c>
+      <c r="B809" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>267</v>
+      </c>
+      <c r="B810" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>267</v>
+      </c>
+      <c r="B811" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>267</v>
+      </c>
+      <c r="B812" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>267</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>267</v>
+      </c>
+      <c r="B814" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>267</v>
+      </c>
+      <c r="B815" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>267</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>267</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>267</v>
+      </c>
+      <c r="B818" t="s">
+        <v>233</v>
+      </c>
+      <c r="C818" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>267</v>
+      </c>
+      <c r="B819" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>267</v>
+      </c>
+      <c r="B820" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>267</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>267</v>
+      </c>
+      <c r="B822" t="s">
+        <v>228</v>
+      </c>
+      <c r="C822" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>267</v>
+      </c>
+      <c r="B823" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>267</v>
+      </c>
+      <c r="B824" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>267</v>
+      </c>
+      <c r="B825" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>267</v>
+      </c>
+      <c r="B826" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>267</v>
+      </c>
+      <c r="B827" t="s">
+        <v>257</v>
+      </c>
+      <c r="C827" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>267</v>
+      </c>
+      <c r="B828" t="s">
+        <v>262</v>
+      </c>
+      <c r="C828" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>267</v>
+      </c>
+      <c r="B829" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>267</v>
+      </c>
+      <c r="B830" t="s">
+        <v>263</v>
+      </c>
+      <c r="C830" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>267</v>
+      </c>
+      <c r="B831" t="s">
+        <v>264</v>
+      </c>
+      <c r="C831" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>267</v>
+      </c>
+      <c r="B832" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>267</v>
+      </c>
+      <c r="B833" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>267</v>
+      </c>
+      <c r="B834" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>267</v>
+      </c>
+      <c r="B835" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>267</v>
+      </c>
+      <c r="B836" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>267</v>
+      </c>
+      <c r="B837" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>267</v>
+      </c>
+      <c r="B838" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>267</v>
+      </c>
+      <c r="B839" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>267</v>
+      </c>
+      <c r="B840" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>267</v>
+      </c>
+      <c r="B841" t="s">
+        <v>265</v>
+      </c>
+      <c r="C841" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>267</v>
+      </c>
+      <c r="B842" t="s">
+        <v>198</v>
+      </c>
+      <c r="C842" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>267</v>
+      </c>
+      <c r="B843" t="s">
+        <v>266</v>
+      </c>
+      <c r="C843" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>267</v>
+      </c>
+      <c r="B844" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>267</v>
+      </c>
+      <c r="B845" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>267</v>
+      </c>
+      <c r="B846" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>268</v>
+      </c>
+      <c r="B847" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>268</v>
+      </c>
+      <c r="B848" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>268</v>
+      </c>
+      <c r="B849" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>268</v>
+      </c>
+      <c r="B850" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>268</v>
+      </c>
+      <c r="B851" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>268</v>
+      </c>
+      <c r="B852" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>268</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>268</v>
+      </c>
+      <c r="B854" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>268</v>
+      </c>
+      <c r="B855" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>268</v>
+      </c>
+      <c r="B856" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>268</v>
+      </c>
+      <c r="B857" t="s">
+        <v>269</v>
+      </c>
+      <c r="C857" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>268</v>
+      </c>
+      <c r="B858" t="s">
+        <v>81</v>
+      </c>
+      <c r="C858" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>268</v>
+      </c>
+      <c r="B859" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>268</v>
+      </c>
+      <c r="B860" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>268</v>
+      </c>
+      <c r="B861" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>268</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>268</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>268</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>268</v>
+      </c>
+      <c r="B865" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>268</v>
+      </c>
+      <c r="B866" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>268</v>
+      </c>
+      <c r="B867" t="s">
+        <v>290</v>
+      </c>
+      <c r="C867" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>268</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>268</v>
+      </c>
+      <c r="B869" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>268</v>
+      </c>
+      <c r="B870" t="s">
+        <v>271</v>
+      </c>
+      <c r="C870" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>268</v>
+      </c>
+      <c r="B871" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>268</v>
+      </c>
+      <c r="B872" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>268</v>
+      </c>
+      <c r="B873" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>268</v>
+      </c>
+      <c r="B874" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>268</v>
+      </c>
+      <c r="B875" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>268</v>
+      </c>
+      <c r="B876" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>268</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>268</v>
+      </c>
+      <c r="B878" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>268</v>
+      </c>
+      <c r="B879" t="s">
+        <v>3</v>
+      </c>
+      <c r="C879" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>268</v>
+      </c>
+      <c r="B880" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>268</v>
+      </c>
+      <c r="B881" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>268</v>
+      </c>
+      <c r="B882" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>268</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>268</v>
+      </c>
+      <c r="B884" t="s">
+        <v>272</v>
+      </c>
+      <c r="C884" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>268</v>
+      </c>
+      <c r="B885" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>268</v>
+      </c>
+      <c r="B886" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>268</v>
+      </c>
+      <c r="B887" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>268</v>
+      </c>
+      <c r="B888" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>268</v>
+      </c>
+      <c r="B889" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>268</v>
+      </c>
+      <c r="B890" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>268</v>
+      </c>
+      <c r="B891" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>268</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>268</v>
+      </c>
+      <c r="B893" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>268</v>
+      </c>
+      <c r="B894" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>268</v>
+      </c>
+      <c r="B895" t="s">
+        <v>81</v>
+      </c>
+      <c r="C895" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>268</v>
+      </c>
+      <c r="B896" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>268</v>
+      </c>
+      <c r="B897" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>268</v>
+      </c>
+      <c r="B898" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>268</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>268</v>
+      </c>
+      <c r="B900" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>268</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>268</v>
+      </c>
+      <c r="B902" t="s">
+        <v>3</v>
+      </c>
+      <c r="C902" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>268</v>
+      </c>
+      <c r="B903" t="s">
+        <v>276</v>
+      </c>
+      <c r="C903" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>268</v>
+      </c>
+      <c r="B904" t="s">
+        <v>277</v>
+      </c>
+      <c r="C904" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>268</v>
+      </c>
+      <c r="B905" t="s">
+        <v>278</v>
+      </c>
+      <c r="C905" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>268</v>
+      </c>
+      <c r="B906" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>268</v>
+      </c>
+      <c r="B907" t="s">
+        <v>280</v>
+      </c>
+      <c r="C907" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>281</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>281</v>
+      </c>
+      <c r="B909" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>281</v>
+      </c>
+      <c r="B910" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>281</v>
+      </c>
+      <c r="B911" t="s">
+        <v>282</v>
+      </c>
+      <c r="C911" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>281</v>
+      </c>
+      <c r="B912" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>281</v>
+      </c>
+      <c r="B913" t="s">
+        <v>5</v>
+      </c>
+      <c r="C913" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>281</v>
+      </c>
+      <c r="B914" t="s">
+        <v>283</v>
+      </c>
+      <c r="C914" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>281</v>
+      </c>
+      <c r="B915" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>281</v>
+      </c>
+      <c r="B916" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>281</v>
+      </c>
+      <c r="B917" t="s">
+        <v>284</v>
+      </c>
+      <c r="C917" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>281</v>
+      </c>
+      <c r="B918" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>281</v>
+      </c>
+      <c r="B919" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>281</v>
+      </c>
+      <c r="B920" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>281</v>
+      </c>
+      <c r="B921" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>281</v>
+      </c>
+      <c r="B922" t="s">
+        <v>285</v>
+      </c>
+      <c r="C922" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>281</v>
+      </c>
+      <c r="B923" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>281</v>
+      </c>
+      <c r="B924" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>281</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>281</v>
+      </c>
+      <c r="B926" t="s">
+        <v>286</v>
+      </c>
+      <c r="C926" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>281</v>
+      </c>
+      <c r="B927" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>281</v>
+      </c>
+      <c r="B928" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>281</v>
+      </c>
+      <c r="B929" t="s">
+        <v>3</v>
+      </c>
+      <c r="C929" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>281</v>
+      </c>
+      <c r="B930" t="s">
+        <v>287</v>
+      </c>
+      <c r="C930" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>281</v>
+      </c>
+      <c r="B931" t="s">
+        <v>81</v>
+      </c>
+      <c r="C931" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>281</v>
+      </c>
+      <c r="B932" t="s">
+        <v>289</v>
+      </c>
+      <c r="C932" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="933" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>281</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>281</v>
+      </c>
+      <c r="B934" t="s">
+        <v>3</v>
+      </c>
+      <c r="C934" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="935" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>281</v>
+      </c>
+      <c r="B935" t="s">
+        <v>58</v>
+      </c>
+      <c r="C935" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="936" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>281</v>
+      </c>
+      <c r="B936" t="s">
+        <v>291</v>
+      </c>
+      <c r="C936" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>281</v>
+      </c>
+      <c r="B937" t="s">
+        <v>292</v>
+      </c>
+      <c r="C937" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="938" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>281</v>
+      </c>
+      <c r="B938" t="s">
+        <v>293</v>
+      </c>
+      <c r="C938" t="s">
+        <v>22</v>
+      </c>
+      <c r="D938" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="939" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>281</v>
+      </c>
+      <c r="B939" t="s">
+        <v>294</v>
+      </c>
+      <c r="C939" t="s">
+        <v>295</v>
+      </c>
+      <c r="D939" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>281</v>
+      </c>
+      <c r="B940" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="941" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>281</v>
+      </c>
+      <c r="B941" t="s">
+        <v>296</v>
+      </c>
+      <c r="C941" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="942" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>281</v>
+      </c>
+      <c r="B942" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>281</v>
+      </c>
+      <c r="B943" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="944" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>281</v>
+      </c>
+      <c r="B944" t="s">
+        <v>297</v>
+      </c>
+      <c r="C944" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>281</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>281</v>
+      </c>
+      <c r="B946" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>281</v>
+      </c>
+      <c r="B947" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>281</v>
+      </c>
+      <c r="B948" t="s">
+        <v>11</v>
+      </c>
+      <c r="C948" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>281</v>
+      </c>
+      <c r="B949" t="s">
+        <v>298</v>
+      </c>
+      <c r="C949" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>281</v>
+      </c>
+      <c r="B950" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>281</v>
+      </c>
+      <c r="B951" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>281</v>
+      </c>
+      <c r="B952" t="s">
+        <v>299</v>
+      </c>
+      <c r="C952" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>281</v>
+      </c>
+      <c r="B953" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A954" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B954" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A955" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B955" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A956" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B956" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A957" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B957" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A958" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B958" t="s">
+        <v>301</v>
+      </c>
+      <c r="C958" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A959" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B959" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A960" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B960" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A961" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B961" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>254</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>254</v>
+      </c>
+      <c r="B963" t="s">
+        <v>302</v>
+      </c>
+      <c r="C963" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>254</v>
+      </c>
+      <c r="B964" t="s">
+        <v>117</v>
+      </c>
+      <c r="C964" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>254</v>
+      </c>
+      <c r="B965" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>254</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>254</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>254</v>
+      </c>
+      <c r="B968" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>254</v>
+      </c>
+      <c r="B969" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>254</v>
+      </c>
+      <c r="B970" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>254</v>
+      </c>
+      <c r="B971" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>254</v>
+      </c>
+      <c r="B972" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>254</v>
+      </c>
+      <c r="B973" t="s">
+        <v>304</v>
+      </c>
+      <c r="C973" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>254</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>254</v>
+      </c>
+      <c r="B975" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>254</v>
+      </c>
+      <c r="B976" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>254</v>
+      </c>
+      <c r="B977" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>254</v>
+      </c>
+      <c r="B978" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>254</v>
+      </c>
+      <c r="B979" t="s">
+        <v>241</v>
+      </c>
+      <c r="C979" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>254</v>
+      </c>
+      <c r="B980" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>254</v>
+      </c>
+      <c r="B981" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>254</v>
+      </c>
+      <c r="B982" t="s">
+        <v>305</v>
+      </c>
+      <c r="C982" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>254</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>254</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>254</v>
+      </c>
+      <c r="B985" t="s">
+        <v>306</v>
+      </c>
+      <c r="C985" t="s">
+        <v>22</v>
+      </c>
+      <c r="D985" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>254</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>254</v>
+      </c>
+      <c r="B987" t="s">
+        <v>307</v>
+      </c>
+      <c r="C987" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>254</v>
+      </c>
+      <c r="B988" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>254</v>
+      </c>
+      <c r="B989" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>254</v>
+      </c>
+      <c r="B990" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>254</v>
+      </c>
+      <c r="B991" t="s">
+        <v>306</v>
+      </c>
+      <c r="C991" t="s">
+        <v>22</v>
+      </c>
+      <c r="D991" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>254</v>
+      </c>
+      <c r="B992" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>254</v>
+      </c>
+      <c r="B993" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>254</v>
+      </c>
+      <c r="B994" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>254</v>
+      </c>
+      <c r="B995" t="s">
+        <v>171</v>
+      </c>
+      <c r="C995" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>254</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>254</v>
+      </c>
+      <c r="B997" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>254</v>
+      </c>
+      <c r="B998" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>254</v>
+      </c>
+      <c r="B999" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9358,16 +13066,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80AC2182-9A61-4E0F-9394-F498012C2D85}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6e1ea3c6-49aa-46a0-abdd-da3db8966731"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="849ba905-b147-4d5f-9c8c-24526156989e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6e1ea3c6-49aa-46a0-abdd-da3db8966731"/>
-    <ds:schemaRef ds:uri="849ba905-b147-4d5f-9c8c-24526156989e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>